--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -876,7 +876,7 @@
     <t>DiagnosticReport.code.coding.display</t>
   </si>
   <si>
-    <t>Laboratory report</t>
+    <t>検体検査報告書</t>
   </si>
   <si>
     <t>DiagnosticReport.code.coding:laboratoryCode.userSelected</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -495,7 +495,13 @@
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -523,6 +529,9 @@
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
 さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。
 【JP Core仕様】Diagnostic Service Section Codesの"LAB"を使用</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
     <t>DiagnosticReport.category:laboratory.id</t>
@@ -1296,9 +1305,6 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
 【JP Core仕様】原則使わない</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>レポートの補助として提供される診断コード。 / Diagnosis codes provided as adjuncts to the report.</t>
@@ -3124,24 +3130,26 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>141</v>
@@ -3162,24 +3170,24 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>142</v>
@@ -3210,7 +3218,7 @@
         <v>145</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3240,7 +3248,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3276,21 +3284,21 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3313,13 +3321,13 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3370,7 +3378,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3391,7 +3399,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3399,10 +3407,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3431,7 +3439,7 @@
         <v>98</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>100</v>
@@ -3472,19 +3480,19 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3505,7 +3513,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3513,10 +3521,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3539,19 +3547,19 @@
         <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3600,7 +3608,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3618,10 +3626,10 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3629,10 +3637,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3655,13 +3663,13 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3712,7 +3720,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3733,7 +3741,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3741,10 +3749,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3773,7 +3781,7 @@
         <v>98</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>100</v>
@@ -3814,19 +3822,19 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3847,7 +3855,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3855,10 +3863,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3884,23 +3892,23 @@
         <v>65</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3942,7 +3950,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3960,10 +3968,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3971,10 +3979,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3997,16 +4005,16 @@
         <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4056,7 +4064,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4074,10 +4082,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4085,10 +4093,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4114,21 +4122,21 @@
         <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4170,7 +4178,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4188,10 +4196,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4199,10 +4207,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4225,17 +4233,17 @@
         <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4284,7 +4292,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4302,10 +4310,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4313,10 +4321,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4339,19 +4347,19 @@
         <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4400,7 +4408,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4418,10 +4426,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4429,10 +4437,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4455,19 +4463,19 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4516,7 +4524,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4534,10 +4542,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4545,14 +4553,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4574,13 +4582,13 @@
         <v>143</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4610,7 +4618,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4628,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>51</v>
@@ -4643,24 +4651,24 @@
         <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4683,13 +4691,13 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4740,7 +4748,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4761,7 +4769,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4769,10 +4777,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4801,7 +4809,7 @@
         <v>98</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>100</v>
@@ -4842,19 +4850,19 @@
         <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4875,7 +4883,7 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4883,10 +4891,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4909,19 +4917,19 @@
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4958,17 +4966,17 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4986,10 +4994,10 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4997,13 +5005,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>41</v>
@@ -5025,19 +5033,19 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5086,7 +5094,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5104,10 +5112,10 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5115,10 +5123,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5141,13 +5149,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5198,7 +5206,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5219,7 +5227,7 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5227,10 +5235,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5259,7 +5267,7 @@
         <v>98</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>100</v>
@@ -5300,19 +5308,19 @@
         <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5333,7 +5341,7 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5341,10 +5349,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5370,16 +5378,16 @@
         <v>65</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5389,7 +5397,7 @@
         <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>41</v>
@@ -5428,7 +5436,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5446,10 +5454,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5457,10 +5465,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5483,16 +5491,16 @@
         <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5542,7 +5550,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5560,10 +5568,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5571,10 +5579,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5600,14 +5608,14 @@
         <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5617,7 +5625,7 @@
         <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>41</v>
@@ -5656,7 +5664,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5674,10 +5682,10 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5685,10 +5693,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5711,17 +5719,17 @@
         <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5731,7 +5739,7 @@
         <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>41</v>
@@ -5770,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5788,10 +5796,10 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5799,10 +5807,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5825,19 +5833,19 @@
         <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -5886,7 +5894,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5904,10 +5912,10 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5915,10 +5923,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5941,19 +5949,19 @@
         <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6002,7 +6010,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6020,10 +6028,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6031,14 +6039,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6057,19 +6065,19 @@
         <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6118,7 +6126,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6133,28 +6141,28 @@
         <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6173,19 +6181,19 @@
         <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6234,7 +6242,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6249,28 +6257,28 @@
         <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6289,19 +6297,19 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6350,7 +6358,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6365,28 +6373,28 @@
         <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6405,19 +6413,19 @@
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6466,7 +6474,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6484,25 +6492,25 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6521,19 +6529,19 @@
         <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6582,7 +6590,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6597,28 +6605,28 @@
         <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6637,19 +6645,19 @@
         <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6698,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6713,24 +6721,24 @@
         <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6753,19 +6761,19 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -6814,7 +6822,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6832,10 +6840,10 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6843,14 +6851,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6869,19 +6877,19 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -6930,7 +6938,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6948,10 +6956,10 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6959,10 +6967,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6985,16 +6993,16 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7044,7 +7052,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7065,7 +7073,7 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7073,14 +7081,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7099,19 +7107,19 @@
         <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7160,7 +7168,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7178,10 +7186,10 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7189,10 +7197,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7215,13 +7223,13 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7272,7 +7280,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7293,7 +7301,7 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7301,10 +7309,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7333,7 +7341,7 @@
         <v>98</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>100</v>
@@ -7386,7 +7394,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7407,7 +7415,7 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -7415,14 +7423,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7444,10 +7452,10 @@
         <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>100</v>
@@ -7502,7 +7510,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7531,10 +7539,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7557,19 +7565,19 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -7618,7 +7626,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7639,7 +7647,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7647,10 +7655,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7673,16 +7681,16 @@
         <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7732,7 +7740,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>51</v>
@@ -7753,7 +7761,7 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7761,14 +7769,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7787,19 +7795,19 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -7848,7 +7856,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7866,10 +7874,10 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7877,10 +7885,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7906,13 +7914,13 @@
         <v>143</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7938,13 +7946,13 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -7962,7 +7970,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7980,10 +7988,10 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7991,10 +7999,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8017,19 +8025,19 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8078,7 +8086,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8096,10 +8104,10 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -636,7 +636,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -636,7 +636,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>
